--- a/I_Electronica/HORARIOS ELECTRONICA.xlsx
+++ b/I_Electronica/HORARIOS ELECTRONICA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58D0A4-EB4F-4FE8-A5EB-0B4190AE4BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587348A-5CF8-4EAF-B950-62B1E2B1445A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{1C5C2901-EE7F-4E64-A984-019013CC9FF1}"/>
   </bookViews>
@@ -1542,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1837,9 +1837,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3373,7 +3370,7 @@
   <dimension ref="A2:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="O20" sqref="O20:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,16 +4003,16 @@
       <c r="L20" s="87"/>
       <c r="M20" s="87"/>
       <c r="N20" s="108"/>
-      <c r="O20" s="144" t="s">
+      <c r="O20" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="P20" s="144">
+      <c r="P20" s="143">
         <v>4</v>
       </c>
-      <c r="Q20" s="144">
+      <c r="Q20" s="143">
         <v>10</v>
       </c>
-      <c r="R20" s="144">
+      <c r="R20" s="143">
         <v>1</v>
       </c>
       <c r="S20" t="s">

--- a/I_Electronica/HORARIOS ELECTRONICA.xlsx
+++ b/I_Electronica/HORARIOS ELECTRONICA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEED9B2-BCD0-474E-8A26-68725899D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94371BDD-D7F3-45CC-8258-0BAF37D1B4D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1C5C2901-EE7F-4E64-A984-019013CC9FF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{1C5C2901-EE7F-4E64-A984-019013CC9FF1}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="319">
   <si>
     <t>HORA</t>
   </si>
@@ -1040,7 +1040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1538,11 +1538,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,9 +1728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,39 +1781,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,6 +1808,69 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2131,125 +2185,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAD5534-FA68-49E2-8E10-B0203783F188}">
-  <dimension ref="A2:R40"/>
+  <dimension ref="A2:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="113" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="113" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="115" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="113" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="113" t="s">
         <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2270,35 +2324,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="108" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="108" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="116" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="108" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="120" t="s">
+      <c r="J6" s="108" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -2319,35 +2373,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="108" t="s">
         <v>317</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="108" t="s">
         <v>317</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="111" t="s">
         <v>80</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="111" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -2368,35 +2422,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="121" t="s">
         <v>317</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="121" t="s">
         <v>317</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="111" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="111" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -2417,11 +2471,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2433,7 +2487,7 @@
       <c r="E9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="109" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2445,7 +2499,7 @@
       <c r="I9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="108" t="s">
         <v>82</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -2466,11 +2520,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="106" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2482,7 +2536,7 @@
       <c r="E10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="110" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="31" t="s">
@@ -2494,7 +2548,7 @@
       <c r="I10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="124" t="s">
+      <c r="J10" s="112" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -2515,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2543,7 +2597,7 @@
       <c r="I11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="125" t="s">
+      <c r="J11" s="113" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -2555,8 +2609,14 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="133"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="135"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +2644,7 @@
       <c r="I12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="114" t="s">
         <v>48</v>
       </c>
       <c r="K12" s="17" t="s">
@@ -2596,8 +2656,26 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T12" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2685,7 @@
       <c r="C13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="107" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -2619,13 +2697,13 @@
       <c r="G13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="107" t="s">
         <v>73</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="119" t="s">
+      <c r="J13" s="107" t="s">
         <v>74</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -2633,14 +2711,32 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108" t="s">
+      <c r="O13" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="T13" s="136">
+        <v>8</v>
+      </c>
+      <c r="U13" s="137">
+        <v>2</v>
+      </c>
+      <c r="V13" s="137">
+        <v>8</v>
+      </c>
+      <c r="W13" s="137">
+        <v>5</v>
+      </c>
+      <c r="X13" s="137">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2746,7 @@
       <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="108" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2662,13 +2758,13 @@
       <c r="G14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="108" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="112" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -2676,42 +2772,60 @@
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="T14" s="136">
+        <v>7</v>
+      </c>
+      <c r="U14" s="137">
+        <v>1</v>
+      </c>
+      <c r="V14" s="137">
+        <v>6</v>
+      </c>
+      <c r="W14" s="137">
+        <v>4</v>
+      </c>
+      <c r="X14" s="137">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="108" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="108" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="108" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="108" t="s">
         <v>62</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="120" t="s">
+      <c r="J15" s="108" t="s">
         <v>62</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -2719,42 +2833,60 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="T15" s="136">
+        <v>6</v>
+      </c>
+      <c r="U15" s="137">
+        <v>3</v>
+      </c>
+      <c r="V15" s="137">
+        <v>7</v>
+      </c>
+      <c r="W15" s="137">
+        <v>6</v>
+      </c>
+      <c r="X15" s="137">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="112" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="112" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="112" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="124" t="s">
+      <c r="H16" s="112" t="s">
         <v>62</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="124" t="s">
+      <c r="J16" s="112" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -2762,18 +2894,24 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="O16" s="108" t="s">
+      <c r="O16" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="141"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="113" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2789,14 +2927,14 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -2812,14 +2950,14 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="108" t="s">
+      <c r="O18" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -2835,14 +2973,14 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108" t="s">
+      <c r="O19" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -2858,98 +2996,98 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108" t="s">
+      <c r="O20" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O21" s="108" t="s">
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O22" s="108" t="s">
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="108" t="s">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="O24" s="108" t="s">
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="O24" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2965,14 +3103,14 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="O25" s="108" t="s">
+      <c r="O25" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2988,14 +3126,14 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="O26" s="108" t="s">
+      <c r="O26" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -3013,14 +3151,14 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="O27" s="108" t="s">
+      <c r="O27" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -3038,14 +3176,14 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="O28" s="108" t="s">
+      <c r="O28" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -3061,14 +3199,14 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="O29" s="108" t="s">
+      <c r="O29" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -3084,14 +3222,14 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-      <c r="O30" s="108" t="s">
+      <c r="O30" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -3099,17 +3237,15 @@
       <c r="C31" s="2"/>
       <c r="D31" s="58"/>
       <c r="E31" s="59"/>
-      <c r="F31" s="129" t="s">
-        <v>73</v>
-      </c>
+      <c r="F31" s="117"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="132" t="s">
+      <c r="H31" s="120" t="s">
         <v>67</v>
       </c>
       <c r="I31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="125" t="s">
+      <c r="J31" s="113" t="s">
         <v>73</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -3117,36 +3253,36 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="O31" s="108" t="s">
+      <c r="O31" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="119" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="130" t="s">
+      <c r="F32" s="118" t="s">
         <v>73</v>
       </c>
       <c r="G32" s="56"/>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="119" t="s">
         <v>67</v>
       </c>
       <c r="I32" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="126" t="s">
+      <c r="J32" s="114" t="s">
         <v>73</v>
       </c>
       <c r="K32" s="17" t="s">
@@ -3155,7 +3291,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3308,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -3189,7 +3325,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -3206,7 +3342,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -3223,7 +3359,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -3240,7 +3376,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -3257,7 +3393,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -3274,7 +3410,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -3293,6 +3429,43 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="O3:O4"/>
@@ -3305,43 +3478,6 @@
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="O18:R18"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3355,100 +3491,100 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="99"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="99"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="71"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3467,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3476,7 +3612,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="98"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="9"/>
       <c r="I6" s="68"/>
       <c r="J6" s="5"/>
@@ -3499,7 +3635,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3650,7 @@
         <v>239</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="91"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="8"/>
       <c r="K7" s="5"/>
       <c r="L7" s="2" t="s">
@@ -3536,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3551,7 +3687,7 @@
         <v>239</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="91"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="8"/>
       <c r="K8" s="5"/>
       <c r="L8" s="17" t="s">
@@ -3565,7 +3701,7 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="27"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -3584,7 +3720,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="8"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="101"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="5" t="s">
         <v>314</v>
       </c>
@@ -3598,14 +3734,14 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="27"/>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>239</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -3615,9 +3751,9 @@
         <v>239</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="100"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="102"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="17" t="s">
         <v>314</v>
       </c>
@@ -3626,12 +3762,12 @@
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="13"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="104"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -3655,12 +3791,12 @@
       <c r="K11" s="19"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="92"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="91"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -3693,7 +3829,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3724,7 +3860,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -3744,20 +3880,20 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="104">
         <v>4</v>
       </c>
-      <c r="Q14" s="105">
+      <c r="Q14" s="104">
         <v>10</v>
       </c>
-      <c r="R14" s="105">
+      <c r="R14" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3785,20 +3921,20 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="105" t="s">
+      <c r="O15" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="P15" s="105">
+      <c r="P15" s="104">
         <v>4</v>
       </c>
-      <c r="Q15" s="105">
+      <c r="Q15" s="104">
         <v>10</v>
       </c>
-      <c r="R15" s="105">
+      <c r="R15" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -3826,23 +3962,23 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="O16" s="105" t="s">
+      <c r="O16" s="104" t="s">
         <v>312</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="104">
         <v>4</v>
       </c>
-      <c r="Q16" s="105">
+      <c r="Q16" s="104">
         <v>10</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="104">
         <v>1</v>
       </c>
       <c r="S16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -3866,20 +4002,20 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="O17" s="105" t="s">
+      <c r="O17" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="104">
         <v>4</v>
       </c>
-      <c r="Q17" s="105">
+      <c r="Q17" s="104">
         <v>10</v>
       </c>
-      <c r="R17" s="105">
+      <c r="R17" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -3907,20 +4043,20 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="105" t="s">
+      <c r="O18" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="P18" s="105">
+      <c r="P18" s="104">
         <v>4</v>
       </c>
-      <c r="Q18" s="105">
+      <c r="Q18" s="104">
         <v>10</v>
       </c>
-      <c r="R18" s="105">
+      <c r="R18" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3940,20 +4076,20 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="105" t="s">
+      <c r="O19" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="105">
+      <c r="P19" s="104">
         <v>4</v>
       </c>
-      <c r="Q19" s="105">
+      <c r="Q19" s="104">
         <v>10</v>
       </c>
-      <c r="R19" s="105">
+      <c r="R19" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -3969,97 +4105,97 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="105" t="s">
+      <c r="O20" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="P20" s="105">
+      <c r="P20" s="104">
         <v>4</v>
       </c>
-      <c r="Q20" s="105">
+      <c r="Q20" s="104">
         <v>10</v>
       </c>
-      <c r="R20" s="105">
+      <c r="R20" s="104">
         <v>1</v>
       </c>
       <c r="S20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="99"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="99"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="71"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -4068,7 +4204,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="98"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="9"/>
       <c r="I26" s="68"/>
       <c r="J26" s="5"/>
@@ -4076,7 +4212,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -4087,13 +4223,13 @@
       <c r="F27" s="10"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="91"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="8"/>
       <c r="K27" s="5"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -4104,13 +4240,13 @@
       <c r="F28" s="10"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="91"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="8"/>
       <c r="K28" s="5"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -4121,30 +4257,30 @@
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="101"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="5"/>
       <c r="K29" s="54"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="100"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="17"/>
       <c r="E30" s="56"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="100"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="102"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="17"/>
       <c r="K30" s="56"/>
       <c r="L30" s="5"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -4169,7 +4305,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
@@ -4194,7 +4330,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4219,7 +4355,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -4244,7 +4380,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -4261,7 +4397,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -4278,7 +4414,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4431,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -4312,7 +4448,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -4329,7 +4465,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -4348,6 +4484,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4360,24 +4514,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4387,122 +4523,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5720B4-D9EF-49CD-94AD-EB3B2D0BA372}">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="113" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="113" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="113" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="113" t="s">
         <v>101</v>
       </c>
       <c r="I5" s="71" t="s">
@@ -4515,39 +4651,39 @@
       <c r="O5" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <v>3</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="84">
         <v>35</v>
       </c>
-      <c r="R5" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R5" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="108" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="108" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="108" t="s">
         <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="108" t="s">
         <v>101</v>
       </c>
       <c r="I6" s="68" t="s">
@@ -4570,35 +4706,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="108" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="111" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="108" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="145" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="111" t="s">
         <v>103</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -4619,23 +4755,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="108" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="111" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="108" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -4643,7 +4779,7 @@
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="111" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -4664,29 +4800,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="142" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="147" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="142" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="149" t="s">
         <v>98</v>
       </c>
       <c r="I9" s="73" t="s">
@@ -4709,29 +4845,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="143" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="148" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="143" t="s">
         <v>124</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="119" t="s">
         <v>98</v>
       </c>
       <c r="I10" s="66" t="s">
@@ -4744,21 +4880,21 @@
       <c r="O10" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="87">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="87">
+      <c r="P10" s="86">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="86">
         <v>20</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10" s="87">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="113" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="71" t="s">
@@ -4766,13 +4902,13 @@
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="120" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="120" t="s">
         <v>99</v>
       </c>
       <c r="I11" s="60" t="s">
@@ -4787,29 +4923,29 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="114" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="114" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="119" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="119" t="s">
         <v>99</v>
       </c>
       <c r="I12" s="63" t="s">
@@ -4824,35 +4960,35 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="144" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="107" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="144" t="s">
         <v>120</v>
       </c>
       <c r="G13" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="107" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="146" t="s">
         <v>106</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -4860,36 +4996,36 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="76"/>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="108" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="149" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="108" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="108" t="s">
         <v>106</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -4898,77 +5034,77 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="108" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="108" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="108" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="108" t="s">
         <v>96</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="108" t="s">
         <v>121</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="114" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="112" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="114" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="114" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="112" t="s">
         <v>121</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -4985,7 +5121,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -5002,7 +5138,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -5018,12 +5154,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -5039,93 +5175,93 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="68"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="113" t="s">
         <v>109</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -5134,31 +5270,31 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="68"/>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="108" t="s">
         <v>109</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -5167,7 +5303,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -5175,7 +5311,7 @@
       <c r="C27" s="68"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="108" t="s">
         <v>118</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -5188,7 +5324,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -5205,7 +5341,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -5222,7 +5358,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -5239,29 +5375,29 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="120" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="60" t="s">
@@ -5272,29 +5408,29 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="119" t="s">
         <v>114</v>
       </c>
       <c r="I32" s="63" t="s">
@@ -5305,7 +5441,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -5322,7 +5458,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -5339,7 +5475,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -5356,7 +5492,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -5373,7 +5509,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -5390,7 +5526,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -5407,7 +5543,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -5424,7 +5560,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -5443,12 +5579,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O20:R20"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -5461,21 +5606,12 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5486,128 +5622,128 @@
   <dimension ref="A2:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
-    <col min="19" max="19" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="113" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="113" t="s">
         <v>133</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -5628,35 +5764,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="108" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="108" t="s">
         <v>133</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -5680,31 +5816,31 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="68"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="108" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="108" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="108" t="s">
         <v>143</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="111" t="s">
         <v>149</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -5725,31 +5861,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="68"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="108" t="s">
         <v>138</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="108" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="108" t="s">
         <v>143</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="111" t="s">
         <v>149</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -5770,35 +5906,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="108" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="108" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="142" t="s">
         <v>148</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="108" t="s">
         <v>147</v>
       </c>
       <c r="I9" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="108" t="s">
         <v>147</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -5819,35 +5955,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="112" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="112" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="143" t="s">
         <v>148</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="112" t="s">
         <v>147</v>
       </c>
       <c r="I10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="112" t="s">
         <v>147</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -5860,13 +5996,13 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="71"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="113" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="59" t="s">
@@ -5880,7 +6016,7 @@
       <c r="I11" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="113" t="s">
         <v>139</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -5893,13 +6029,13 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="114" t="s">
         <v>139</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -5913,7 +6049,7 @@
       <c r="I12" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="114" t="s">
         <v>139</v>
       </c>
       <c r="K12" s="17" t="s">
@@ -5926,35 +6062,35 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="144" t="s">
         <v>145</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="107" t="s">
         <v>140</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="107" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="107" t="s">
         <v>140</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="144" t="s">
         <v>145</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -5962,40 +6098,40 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="149" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="108" t="s">
         <v>140</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="108" t="s">
         <v>140</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="108" t="s">
         <v>140</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="149" t="s">
         <v>145</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -6004,35 +6140,35 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="108" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="108" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="149" t="s">
         <v>145</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="108" t="s">
         <v>134</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="108" t="s">
         <v>136</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -6041,35 +6177,35 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="114" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="114" t="s">
         <v>145</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="114" t="s">
         <v>134</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="114" t="s">
         <v>136</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -6078,15 +6214,19 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="113" t="s">
+        <v>128</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="113" t="s">
+        <v>128</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6095,15 +6235,19 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="108" t="s">
+        <v>128</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="108" t="s">
+        <v>128</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -6112,7 +6256,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -6128,12 +6272,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -6149,69 +6293,69 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="109" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="106" t="s">
+      <c r="C22" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="106" t="s">
+      <c r="E22" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="113" t="s">
+      <c r="G22" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="106" t="s">
+      <c r="I22" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="106" t="s">
+      <c r="K22" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="110"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M22" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -6228,7 +6372,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -6245,7 +6389,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -6262,7 +6406,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -6279,7 +6423,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -6296,7 +6440,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
@@ -6313,7 +6457,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
@@ -6330,7 +6474,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>19</v>
       </c>
@@ -6347,7 +6491,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -6364,7 +6508,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -6381,13 +6525,13 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="108" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -6402,13 +6546,13 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="69"/>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -6423,7 +6567,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
@@ -6440,7 +6584,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -6457,7 +6601,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -6474,7 +6618,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>27</v>
       </c>
@@ -6493,24 +6637,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="A22:A23"/>
@@ -6526,6 +6652,24 @@
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6535,123 +6679,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643AAD5-143E-449B-B76B-F2070C7A5E88}">
   <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:R8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="113" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="113" t="s">
         <v>182</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="113" t="s">
         <v>182</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="113" t="s">
         <v>182</v>
       </c>
       <c r="I5" s="71" t="s">
@@ -6668,39 +6812,39 @@
       <c r="O5" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <v>3</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="84">
         <v>24</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="108" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="108" t="s">
         <v>182</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="108" t="s">
         <v>182</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="108" t="s">
         <v>182</v>
       </c>
       <c r="I6" s="68" t="s">
@@ -6730,11 +6874,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="108" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="68" t="s">
@@ -6742,7 +6886,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="108" t="s">
         <v>184</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -6750,7 +6894,7 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="151" t="s">
         <v>185</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -6778,7 +6922,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -6786,7 +6930,7 @@
       <c r="C8" s="68"/>
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="108" t="s">
         <v>184</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -6794,7 +6938,7 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="151" t="s">
         <v>185</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -6819,17 +6963,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="108" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="108" t="s">
         <v>181</v>
       </c>
       <c r="E9" s="54" t="s">
@@ -6837,13 +6981,13 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="108" t="s">
         <v>181</v>
       </c>
       <c r="I9" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="108" t="s">
         <v>184</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -6868,17 +7012,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="112" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="112" t="s">
         <v>181</v>
       </c>
       <c r="E10" s="56" t="s">
@@ -6886,13 +7030,13 @@
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="112" t="s">
         <v>181</v>
       </c>
       <c r="I10" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="108" t="s">
         <v>184</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -6909,25 +7053,25 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="28"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="71"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="113" t="s">
         <v>183</v>
       </c>
       <c r="I11" s="60" t="s">
@@ -6942,25 +7086,25 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="114" t="s">
         <v>183</v>
       </c>
       <c r="I12" s="63" t="s">
@@ -6975,11 +7119,11 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="107" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -6987,19 +7131,19 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="107" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="107" t="s">
         <v>132</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="107" t="s">
         <v>132</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -7007,12 +7151,12 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -7020,19 +7164,19 @@
       <c r="C14" s="76"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="108" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="108" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="108" t="s">
         <v>132</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -7041,17 +7185,17 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="108" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="108" t="s">
         <v>162</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -7059,7 +7203,7 @@
       </c>
       <c r="F15" s="70"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="108" t="s">
         <v>162</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -7070,17 +7214,17 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="114" t="s">
         <v>162</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="114" t="s">
         <v>162</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -7088,7 +7232,7 @@
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="81"/>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="114" t="s">
         <v>162</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -7099,7 +7243,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -7109,7 +7253,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="113" t="s">
         <v>186</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -7120,7 +7264,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -7130,7 +7274,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="107" t="s">
         <v>186</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -7141,7 +7285,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -7157,12 +7301,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -7178,69 +7322,69 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -7257,7 +7401,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -7274,7 +7418,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -7295,7 +7439,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -7316,7 +7460,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -7337,7 +7481,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -7354,7 +7498,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -7371,7 +7515,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
@@ -7388,13 +7532,13 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="107" t="s">
         <v>170</v>
       </c>
       <c r="E33" s="19" t="s">
@@ -7409,13 +7553,13 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="108" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -7430,35 +7574,35 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="108" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="107" t="s">
         <v>170</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="107" t="s">
         <v>170</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="108" t="s">
         <v>169</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -7467,35 +7611,35 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="114" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="108" t="s">
         <v>170</v>
       </c>
       <c r="G36" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="108" t="s">
         <v>170</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="114" t="s">
         <v>169</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -7504,7 +7648,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -7521,7 +7665,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -7538,7 +7682,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -7555,7 +7699,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -7574,24 +7718,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="A23:A24"/>
@@ -7607,6 +7733,24 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7616,132 +7760,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B83D5AF-87A0-4C90-BA42-B1CA3817E10A}">
   <dimension ref="A2:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
       <c r="T4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="113" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="113" t="s">
         <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="113" t="s">
         <v>193</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="113" t="s">
         <v>194</v>
       </c>
       <c r="I5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="113" t="s">
         <v>193</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="113" t="s">
         <v>201</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -7750,54 +7894,54 @@
       <c r="O5" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <v>6</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="84">
         <v>20</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="85">
         <v>2</v>
       </c>
       <c r="T5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="108" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="108" t="s">
         <v>194</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="108" t="s">
         <v>193</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="108" t="s">
         <v>194</v>
       </c>
       <c r="I6" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="108" t="s">
         <v>193</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="108" t="s">
         <v>201</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -7819,7 +7963,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7973,7 @@
       <c r="C7" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="108" t="s">
         <v>204</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -7843,13 +7987,13 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="113" t="s">
         <v>194</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="108" t="s">
         <v>201</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -7868,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -7878,7 +8022,7 @@
       <c r="C8" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="108" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -7890,13 +8034,13 @@
       <c r="G8" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="108" t="s">
         <v>204</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="108" t="s">
         <v>194</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -7917,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -7935,7 +8079,7 @@
       <c r="G9" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="108" t="s">
         <v>204</v>
       </c>
       <c r="I9" s="73" t="s">
@@ -7958,7 +8102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -7976,7 +8120,7 @@
       <c r="G10" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="112" t="s">
         <v>204</v>
       </c>
       <c r="I10" s="66" t="s">
@@ -7989,39 +8133,39 @@
       <c r="O10" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="P10" s="87">
+      <c r="P10" s="86">
         <v>4</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="86">
         <v>35</v>
       </c>
-      <c r="R10" s="88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R10" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="113" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="113" t="s">
         <v>196</v>
       </c>
       <c r="E11" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="113" t="s">
         <v>196</v>
       </c>
       <c r="G11" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="113" t="s">
         <v>196</v>
       </c>
       <c r="I11" s="60" t="s">
@@ -8040,35 +8184,35 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="114" t="s">
         <v>201</v>
       </c>
       <c r="C12" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="114" t="s">
         <v>196</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="114" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="114" t="s">
         <v>196</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="88" t="s">
         <v>207</v>
       </c>
       <c r="K12" s="17" t="s">
@@ -8081,7 +8225,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -8109,7 +8253,7 @@
       <c r="I13" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="144" t="s">
         <v>202</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -8117,12 +8261,12 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -8150,7 +8294,7 @@
       <c r="I14" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="149" t="s">
         <v>202</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -8162,23 +8306,23 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="108" t="s">
         <v>198</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="108" t="s">
         <v>198</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="107" t="s">
         <v>202</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -8190,7 +8334,7 @@
       <c r="I15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="108" t="s">
         <v>198</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -8202,23 +8346,23 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="114" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="114" t="s">
         <v>198</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="108" t="s">
         <v>202</v>
       </c>
       <c r="G16" s="81" t="s">
@@ -8230,7 +8374,7 @@
       <c r="I16" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="114" t="s">
         <v>198</v>
       </c>
       <c r="K16" s="13" t="s">
@@ -8239,7 +8383,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -8247,7 +8391,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="113" t="s">
         <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -8260,7 +8404,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -8277,7 +8421,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -8293,12 +8437,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -8314,13 +8458,21 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="O13:R13"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8333,14 +8485,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="O13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8354,91 +8498,91 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8457,15 +8601,15 @@
       <c r="O5" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <v>4</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -8497,7 +8641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -8549,7 +8693,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -8598,7 +8742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -8647,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -8686,17 +8830,17 @@
       <c r="O10" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="P10" s="87">
+      <c r="P10" s="86">
         <v>5</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="86">
         <v>20</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10" s="87">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -8729,7 +8873,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -8762,7 +8906,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -8794,12 +8938,12 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -8832,7 +8976,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -8865,7 +9009,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -8898,7 +9042,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -8919,7 +9063,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -8936,7 +9080,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -8952,12 +9096,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -8973,69 +9117,69 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -9052,7 +9196,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -9069,7 +9213,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -9086,7 +9230,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -9103,7 +9247,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -9120,7 +9264,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -9137,7 +9281,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -9154,7 +9298,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
@@ -9171,7 +9315,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -9188,7 +9332,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -9205,7 +9349,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -9230,7 +9374,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -9255,7 +9399,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -9276,7 +9420,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -9293,7 +9437,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -9310,7 +9454,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -9329,24 +9473,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="A23:A24"/>
@@ -9362,6 +9488,24 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9375,90 +9519,90 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -9491,17 +9635,17 @@
       <c r="O5" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="84">
         <v>6</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="84">
         <v>20</v>
       </c>
-      <c r="R5" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R5" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -9548,7 +9692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -9569,7 +9713,7 @@
       <c r="H7" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="90" t="s">
         <v>180</v>
       </c>
       <c r="J7" s="7"/>
@@ -9593,7 +9737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -9614,7 +9758,7 @@
       <c r="H8" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="90" t="s">
         <v>180</v>
       </c>
       <c r="J8" s="7"/>
@@ -9638,7 +9782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -9687,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -9730,17 +9874,17 @@
       <c r="O10" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="87">
+      <c r="P10" s="86">
         <v>6</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="86">
         <v>20</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10" s="87">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -9764,20 +9908,20 @@
       <c r="M11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="90" t="s">
+      <c r="O11" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="89">
         <v>6</v>
       </c>
-      <c r="Q11" s="90">
+      <c r="Q11" s="89">
         <v>20</v>
       </c>
-      <c r="R11" s="90">
+      <c r="R11" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -9806,7 +9950,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -9842,12 +9986,12 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -9884,7 +10028,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -9921,7 +10065,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -9958,7 +10102,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -9983,7 +10127,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -10004,7 +10148,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -10020,12 +10164,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -10041,69 +10185,69 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -10120,7 +10264,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -10137,7 +10281,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -10148,13 +10292,13 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="91"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="7"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -10165,13 +10309,13 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="91"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="7"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -10188,7 +10332,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
@@ -10205,7 +10349,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -10234,7 +10378,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
@@ -10263,7 +10407,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -10280,7 +10424,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -10297,7 +10441,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -10314,7 +10458,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -10331,7 +10475,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -10348,7 +10492,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -10365,7 +10509,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -10382,7 +10526,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -10401,24 +10545,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="O19:R19"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="A23:A24"/>
@@ -10434,6 +10560,24 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10447,7 +10591,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
@@ -10455,83 +10599,83 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="106" t="s">
+      <c r="C4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="106" t="s">
+      <c r="E4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="113" t="s">
+      <c r="G4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="106" t="s">
+      <c r="M4" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="115"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="125"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10543,7 +10687,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="98" t="s">
         <v>273</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -10563,20 +10707,20 @@
       <c r="M6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="85" t="s">
+      <c r="O6" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="84">
         <v>6</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="84">
         <v>20</v>
       </c>
-      <c r="R6" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -10591,7 +10735,7 @@
       <c r="F7" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="97" t="s">
         <v>178</v>
       </c>
       <c r="H7" s="5"/>
@@ -10621,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -10638,7 +10782,7 @@
       <c r="H8" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="90" t="s">
         <v>178</v>
       </c>
       <c r="J8" s="7"/>
@@ -10665,7 +10809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -10682,7 +10826,7 @@
       <c r="H9" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="90" t="s">
         <v>178</v>
       </c>
       <c r="J9" s="7"/>
@@ -10702,7 +10846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -10723,7 +10867,7 @@
       <c r="H10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="100" t="s">
         <v>211</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -10750,7 +10894,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
@@ -10765,13 +10909,13 @@
       <c r="F11" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="99" t="s">
         <v>180</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="I11" s="101" t="s">
         <v>211</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -10782,20 +10926,20 @@
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="O11" s="94" t="s">
+      <c r="O11" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="P11" s="94">
+      <c r="P11" s="93">
         <v>6</v>
       </c>
-      <c r="Q11" s="94">
+      <c r="Q11" s="93">
         <v>20</v>
       </c>
-      <c r="R11" s="95">
+      <c r="R11" s="94">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
@@ -10819,20 +10963,20 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="O12" s="96" t="s">
+      <c r="O12" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="P12" s="96">
+      <c r="P12" s="95">
         <v>4</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="Q12" s="95">
         <v>20</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
@@ -10865,7 +11009,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -10908,7 +11052,7 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -10940,20 +11084,20 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="90" t="s">
+      <c r="O15" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="89">
         <v>4</v>
       </c>
-      <c r="Q15" s="90">
+      <c r="Q15" s="89">
         <v>10</v>
       </c>
-      <c r="R15" s="90">
+      <c r="R15" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -10989,20 +11133,20 @@
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="O16" s="90" t="s">
+      <c r="O16" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="90">
+      <c r="P16" s="89">
         <v>4</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="89">
         <v>10</v>
       </c>
-      <c r="R16" s="90">
+      <c r="R16" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
@@ -11038,23 +11182,23 @@
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="O17" s="90" t="s">
+      <c r="O17" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="89">
         <v>4</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="89">
         <v>10</v>
       </c>
-      <c r="R17" s="90">
+      <c r="R17" s="89">
         <v>1</v>
       </c>
       <c r="T17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -11078,20 +11222,20 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="O18" s="90" t="s">
+      <c r="O18" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="89">
         <v>4</v>
       </c>
-      <c r="Q18" s="90">
+      <c r="Q18" s="89">
         <v>10</v>
       </c>
-      <c r="R18" s="90">
+      <c r="R18" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -11119,20 +11263,20 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="90" t="s">
+      <c r="O19" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="P19" s="90">
+      <c r="P19" s="89">
         <v>4</v>
       </c>
-      <c r="Q19" s="90">
+      <c r="Q19" s="89">
         <v>10</v>
       </c>
-      <c r="R19" s="90">
+      <c r="R19" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -11156,20 +11300,20 @@
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="O20" s="90" t="s">
+      <c r="O20" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="89">
         <v>4</v>
       </c>
-      <c r="Q20" s="90">
+      <c r="Q20" s="89">
         <v>10</v>
       </c>
-      <c r="R20" s="90">
+      <c r="R20" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
@@ -11185,80 +11329,80 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="O21" s="90" t="s">
+      <c r="O21" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="P21" s="90">
+      <c r="P21" s="89">
         <v>4</v>
       </c>
-      <c r="Q21" s="90">
+      <c r="Q21" s="89">
         <v>10</v>
       </c>
-      <c r="R21" s="90">
+      <c r="R21" s="89">
         <v>1</v>
       </c>
       <c r="T21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="109" t="s">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="106" t="s">
+      <c r="C24" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="106" t="s">
+      <c r="E24" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="113" t="s">
+      <c r="G24" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="106" t="s">
+      <c r="I24" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="106" t="s">
+      <c r="K24" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="110"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M24" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11279,7 +11423,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -11300,7 +11444,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -11315,13 +11459,13 @@
         <v>180</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="91"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="7"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -11340,13 +11484,13 @@
         <v>180</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="91"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="7"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -11371,7 +11515,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -11396,7 +11540,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>18</v>
       </c>
@@ -11413,7 +11557,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>19</v>
       </c>
@@ -11430,7 +11574,7 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -11459,7 +11603,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -11488,7 +11632,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
@@ -11505,7 +11649,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11522,7 +11666,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>24</v>
       </c>
@@ -11555,7 +11699,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
@@ -11588,7 +11732,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
@@ -11605,7 +11749,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>27</v>
       </c>
@@ -11624,11 +11768,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
@@ -11638,22 +11793,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11667,95 +11811,95 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="19" max="19" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="109" t="s">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="113" t="s">
+      <c r="G3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106" t="s">
+      <c r="M3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="R3" s="123" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -11763,13 +11907,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>298</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="98" t="s">
         <v>298</v>
       </c>
       <c r="I5" s="71" t="s">
@@ -11779,23 +11923,23 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="P5" s="85">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="85">
+      <c r="P5" s="84">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="84">
         <v>20</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="85">
         <v>2</v>
       </c>
       <c r="T5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -11810,7 +11954,7 @@
       <c r="F6" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="97" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -11836,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -11857,7 +12001,7 @@
       <c r="H7" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="I7" s="91" t="s">
+      <c r="I7" s="90" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -11884,7 +12028,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -11905,7 +12049,7 @@
       <c r="H8" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="90" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -11933,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11954,7 +12098,7 @@
       <c r="H9" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="100" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="5"/>
@@ -11978,12 +12122,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="100"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="13" t="s">
         <v>299</v>
       </c>
@@ -11993,13 +12137,13 @@
       <c r="F10" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="99" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="101" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="17"/>
@@ -12010,12 +12154,12 @@
       <c r="M10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="104"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -12035,12 +12179,12 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="92"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="91"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -12065,7 +12209,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -12100,7 +12244,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -12132,20 +12276,20 @@
       <c r="M14" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="104">
         <v>4</v>
       </c>
-      <c r="Q14" s="105">
+      <c r="Q14" s="104">
         <v>10</v>
       </c>
-      <c r="R14" s="105">
+      <c r="R14" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -12165,20 +12309,20 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="105" t="s">
+      <c r="O15" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="P15" s="105">
+      <c r="P15" s="104">
         <v>4</v>
       </c>
-      <c r="Q15" s="105">
+      <c r="Q15" s="104">
         <v>10</v>
       </c>
-      <c r="R15" s="105">
+      <c r="R15" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -12198,23 +12342,23 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="O16" s="105" t="s">
+      <c r="O16" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="104">
         <v>4</v>
       </c>
-      <c r="Q16" s="105">
+      <c r="Q16" s="104">
         <v>10</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="104">
         <v>1</v>
       </c>
       <c r="T16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -12230,20 +12374,20 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="O17" s="105" t="s">
+      <c r="O17" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="104">
         <v>4</v>
       </c>
-      <c r="Q17" s="105">
+      <c r="Q17" s="104">
         <v>10</v>
       </c>
-      <c r="R17" s="105">
+      <c r="R17" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -12259,20 +12403,20 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="105" t="s">
+      <c r="O18" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="P18" s="105">
+      <c r="P18" s="104">
         <v>4</v>
       </c>
-      <c r="Q18" s="105">
+      <c r="Q18" s="104">
         <v>10</v>
       </c>
-      <c r="R18" s="105">
+      <c r="R18" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -12288,20 +12432,20 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="105" t="s">
+      <c r="O19" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="P19" s="105">
+      <c r="P19" s="104">
         <v>4</v>
       </c>
-      <c r="Q19" s="105">
+      <c r="Q19" s="104">
         <v>10</v>
       </c>
-      <c r="R19" s="105">
+      <c r="R19" s="104">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -12317,88 +12461,88 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="O20" s="105" t="s">
+      <c r="O20" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="P20" s="105">
+      <c r="P20" s="104">
         <v>4</v>
       </c>
-      <c r="Q20" s="105">
+      <c r="Q20" s="104">
         <v>10</v>
       </c>
-      <c r="R20" s="105">
+      <c r="R20" s="104">
         <v>1</v>
       </c>
       <c r="T20" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="109" t="s">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="106" t="s">
+      <c r="I23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="106" t="s">
+      <c r="K23" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M23" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="99"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="71"/>
@@ -12407,7 +12551,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -12416,7 +12560,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="98"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="5"/>
       <c r="I26" s="68"/>
       <c r="J26" s="5"/>
@@ -12424,7 +12568,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -12435,7 +12579,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="5"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="91"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="5" t="s">
         <v>286</v>
       </c>
@@ -12449,7 +12593,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -12460,7 +12604,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="5"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="91"/>
+      <c r="I28" s="90"/>
       <c r="J28" s="5" t="s">
         <v>286</v>
       </c>
@@ -12474,7 +12618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -12485,30 +12629,30 @@
       <c r="F29" s="10"/>
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="101"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="5"/>
       <c r="K29" s="54"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="100"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="13"/>
       <c r="E30" s="56"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="100"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="102"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="5"/>
       <c r="K30" s="56"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
@@ -12525,7 +12669,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
@@ -12542,7 +12686,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -12575,7 +12719,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -12608,7 +12752,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -12633,7 +12777,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -12658,7 +12802,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
@@ -12695,7 +12839,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -12732,7 +12876,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -12749,7 +12893,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
@@ -12768,6 +12912,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -12780,24 +12942,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
